--- a/Swapnotory/DataBase And Application/bl_user_role.xlsx
+++ b/Swapnotory/DataBase And Application/bl_user_role.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -41,13 +41,163 @@
     <t>1</t>
   </si>
   <si>
-    <t>ERFAN.AHMED.ENG@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>01A</t>
-  </si>
-  <si>
-    <t>02B</t>
+    <t>SWAPNOTORY49@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>05582</t>
+  </si>
+  <si>
+    <t>22090048</t>
+  </si>
+  <si>
+    <t>22090049</t>
+  </si>
+  <si>
+    <t>22090050</t>
+  </si>
+  <si>
+    <t>22090051</t>
+  </si>
+  <si>
+    <t>22090052</t>
+  </si>
+  <si>
+    <t>22090037</t>
+  </si>
+  <si>
+    <t>22090047</t>
+  </si>
+  <si>
+    <t>22090031</t>
+  </si>
+  <si>
+    <t>22090001</t>
+  </si>
+  <si>
+    <t>22090002</t>
+  </si>
+  <si>
+    <t>22090003</t>
+  </si>
+  <si>
+    <t>22090004</t>
+  </si>
+  <si>
+    <t>22090005</t>
+  </si>
+  <si>
+    <t>22090006</t>
+  </si>
+  <si>
+    <t>22090007</t>
+  </si>
+  <si>
+    <t>22090008</t>
+  </si>
+  <si>
+    <t>22090009</t>
+  </si>
+  <si>
+    <t>22090010</t>
+  </si>
+  <si>
+    <t>22090011</t>
+  </si>
+  <si>
+    <t>22090012</t>
+  </si>
+  <si>
+    <t>22090013</t>
+  </si>
+  <si>
+    <t>22090014</t>
+  </si>
+  <si>
+    <t>22090015</t>
+  </si>
+  <si>
+    <t>22090016</t>
+  </si>
+  <si>
+    <t>22090017</t>
+  </si>
+  <si>
+    <t>22090018</t>
+  </si>
+  <si>
+    <t>22090019</t>
+  </si>
+  <si>
+    <t>22090020</t>
+  </si>
+  <si>
+    <t>22090021</t>
+  </si>
+  <si>
+    <t>22090022</t>
+  </si>
+  <si>
+    <t>22090023</t>
+  </si>
+  <si>
+    <t>22090024</t>
+  </si>
+  <si>
+    <t>22090025</t>
+  </si>
+  <si>
+    <t>22090026</t>
+  </si>
+  <si>
+    <t>22090027</t>
+  </si>
+  <si>
+    <t>22090028</t>
+  </si>
+  <si>
+    <t>22090029</t>
+  </si>
+  <si>
+    <t>22090032</t>
+  </si>
+  <si>
+    <t>22090033</t>
+  </si>
+  <si>
+    <t>22090034</t>
+  </si>
+  <si>
+    <t>22090035</t>
+  </si>
+  <si>
+    <t>22090036</t>
+  </si>
+  <si>
+    <t>22090038</t>
+  </si>
+  <si>
+    <t>22090039</t>
+  </si>
+  <si>
+    <t>22090040</t>
+  </si>
+  <si>
+    <t>22090041</t>
+  </si>
+  <si>
+    <t>22090042</t>
+  </si>
+  <si>
+    <t>22090043</t>
+  </si>
+  <si>
+    <t>22090044</t>
+  </si>
+  <si>
+    <t>22090045</t>
+  </si>
+  <si>
+    <t>22090046</t>
   </si>
 </sst>
 </file>
@@ -147,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:H4" totalsRowShown="0" headerRowCount="1">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:H54" totalsRowShown="0" headerRowCount="1">
+  <autoFilter ref="A1:H54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="ROLE_ID"/>
@@ -176,9 +326,9 @@
     <col min="2" max="2" width="13.64" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -210,7 +360,7 @@
     </row>
     <row r="2" customHeight="1" ht="20">
       <c r="A2" s="5" t="n">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>36</v>
@@ -225,18 +375,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>45257.1350810185</v>
+        <v>45312.722349537</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>45248.6636226852</v>
+        <v>45312.7452893519</v>
       </c>
     </row>
     <row r="3" customHeight="1" ht="20">
       <c r="A3" s="5" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>38</v>
@@ -248,17 +398,21 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>45257.1350810185</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+        <v>45312.7363310185</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>45312.7453819444</v>
+      </c>
     </row>
     <row r="4" customHeight="1" ht="20">
       <c r="A4" s="5" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>38</v>
@@ -273,10 +427,1314 @@
         <v>10</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>45257.1350810185</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="20">
+      <c r="A5" s="5" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="20">
+      <c r="A6" s="5" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="5" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="20">
+      <c r="A8" s="5" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="20">
+      <c r="A9" s="5" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="20">
+      <c r="A10" s="5" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="5" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="20">
+      <c r="A12" s="5" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="20">
+      <c r="A13" s="5" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>45321.2596759259</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="20">
+      <c r="A14" s="5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="20">
+      <c r="A15" s="5" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="20">
+      <c r="A16" s="5" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="20">
+      <c r="A17" s="5" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="20">
+      <c r="A18" s="5" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="5" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="20">
+      <c r="A20" s="5" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="20">
+      <c r="A21" s="5" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="20">
+      <c r="A22" s="5" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="20">
+      <c r="A23" s="5" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="20">
+      <c r="A24" s="5" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="5" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="20">
+      <c r="A26" s="5" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="20">
+      <c r="A27" s="5" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="20">
+      <c r="A28" s="5" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="20">
+      <c r="A29" s="5" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>45323.66375</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="20">
+      <c r="A30" s="5" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="20">
+      <c r="A31" s="5" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="20">
+      <c r="A32" s="5" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="20">
+      <c r="A33" s="5" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="20">
+      <c r="A34" s="5" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="20">
+      <c r="A35" s="5" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="20">
+      <c r="A36" s="5" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="20">
+      <c r="A37" s="5" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="20">
+      <c r="A38" s="5" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="20">
+      <c r="A39" s="5" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="20">
+      <c r="A40" s="5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="20">
+      <c r="A41" s="5" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="20">
+      <c r="A42" s="5" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="20">
+      <c r="A43" s="5" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="20">
+      <c r="A44" s="5" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="20">
+      <c r="A45" s="5" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="20">
+      <c r="A46" s="5" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="20">
+      <c r="A47" s="5" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="20">
+      <c r="A48" s="5" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="20">
+      <c r="A49" s="5" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="20">
+      <c r="A50" s="5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="20">
+      <c r="A51" s="5" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" ht="20">
+      <c r="A52" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" ht="20">
+      <c r="A53" s="5" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" ht="20">
+      <c r="A54" s="5" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>45317.3714351852</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="7" t="n">
+        <v>45317.3787037037</v>
+      </c>
     </row>
   </sheetData>
   <tableParts count="1">
